--- a/documentation/draft/scm/tools.xlsx
+++ b/documentation/draft/scm/tools.xlsx
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -514,122 +514,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
